--- a/src/test/resources/Manual test/bugs Inlaze.xlsx
+++ b/src/test/resources/Manual test/bugs Inlaze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF90724-F44A-46BD-B9D1-18F712117CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E4C347-B9FE-4A32-B2AE-6EB2109C07DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{748851A0-1EAF-4B6C-A38F-10DECEDF0F33}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Bug ID</t>
   </si>
   <si>
-    <t>descripcion</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Pasos a seguir</t>
   </si>
   <si>
@@ -64,41 +61,16 @@
     <t>El email debe cumplir con el estándar de una dirección de correo electrónico y ser único en la base de datos.</t>
   </si>
   <si>
-    <t>se debe ingresar un correo electronico que cumpla el estandar pero este permite crear un usuario con cualquier informacion que no sea un correo</t>
-  </si>
-  <si>
-    <t>se debe ingresar un correo ya registrado para validar que este no permita correos repetidos pero este permite crear un usuario con un correo ya registrado</t>
-  </si>
-  <si>
     <t>Nombre: C C
 Correo:abcabc.com
 Contraseña:Charlie12*</t>
   </si>
   <si>
-    <t>Se debe ingresar una contraseña de  8 caractares incluyendo una mayúscula, una minúscula, un número y un carácter especial para validar que este permita el registro pero este permite contraseña 6 caracteres</t>
-  </si>
-  <si>
-    <t>Ingresar en el campo contraseña un contraseña con menos de 8 caracteres, ademas que incluya una mayuscula, minuscula, un numero y un carácter especial.
-Diligenciar los otros campos del registro</t>
-  </si>
-  <si>
     <t>La contraseña debe tener al menos 8 caracteres, incluyendo una mayúscula, una
 minúscula, un número y un carácter especial.</t>
   </si>
   <si>
     <t>Validar que en el campo nombre recibe vocales con signos ortograficos</t>
-  </si>
-  <si>
-    <t>Ingresar en el campo correo un correo que ya fue registrado
-Diligenciar los otros campos del registro</t>
-  </si>
-  <si>
-    <t>Ingresar en el campo correo un correo que no cumpla el estandar
-Diligenciar los otros campos del registro</t>
-  </si>
-  <si>
-    <t>Ingresar en el campo nombre 2 palabra y que una sea una vocal con tilde 
-Diligenciar los otros campos del registro</t>
   </si>
   <si>
     <t>Nombre: A ó
@@ -108,6 +80,34 @@
   <si>
     <t>El campo de nombre debe contener mínimo 2 palabras (primer nombre y
 apellido).</t>
+  </si>
+  <si>
+    <t>1.Ingresar en el campo correo un correo que no cumpla el estandar
+2.Diligenciar los otros campos del registro</t>
+  </si>
+  <si>
+    <t>1.Ingresar en el campo correo un correo que ya fue registrado
+2.Diligenciar los otros campos del registro</t>
+  </si>
+  <si>
+    <t>Se debe ingresar un correo ya registrado para validar que este no permita correos repetidos pero este permite crear un usuario con un correo ya registrado</t>
+  </si>
+  <si>
+    <t>Se debe ingresar un correo electronico que cumpla el estandar pero este permite crear un usuario con cualquier informacion que no sea un correo</t>
+  </si>
+  <si>
+    <t>Se debe ingresar una contraseña de  8 caractares incluyendo una mayúscula, una minúscula, un número y un carácter especial para validar que este permita el registro pero este permite contraseñas de 6 caracteres</t>
+  </si>
+  <si>
+    <t>1.Ingresar en el campo contraseña una contraseña con menos de 8 caracteres, ademas que incluya una mayuscula, minuscula, un numero y un carácter especial.
+2.Diligenciar los otros campos del registro</t>
+  </si>
+  <si>
+    <t>1.Ingresar en el campo nombre 2 palabras y que una sea una vocal con tilde 
+2.Diligenciar los otros campos del registro</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,19 +503,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -523,19 +523,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2">
         <v>45665</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -543,19 +543,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2">
         <v>45665</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -563,19 +563,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2">
         <v>45665</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -583,19 +583,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>45665</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
